--- a/asset/0537D100.xlsx
+++ b/asset/0537D100.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="122">
   <si>
     <t>LAKI-LAKI</t>
   </si>
@@ -59,44 +59,351 @@
     <t>SEPTI</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Np_m</t>
-  </si>
-  <si>
-    <t>Nama_m</t>
-  </si>
-  <si>
-    <t>Jenis_kelamin</t>
-  </si>
-  <si>
-    <t>Ips_1a</t>
-  </si>
-  <si>
-    <t>Ips_2a</t>
-  </si>
-  <si>
-    <t>Ips_3a</t>
-  </si>
-  <si>
-    <t>ips_3a</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>JENIS_KELAMIN</t>
+  </si>
+  <si>
+    <t>IPS1</t>
+  </si>
+  <si>
+    <t>IPS2</t>
+  </si>
+  <si>
+    <t>IPS3</t>
+  </si>
+  <si>
+    <t>IPS4</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>PREDIKSI</t>
+  </si>
+  <si>
+    <t>FIRMAN</t>
+  </si>
+  <si>
+    <t>TEPAT WAKTU</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>MUHAMAD</t>
+  </si>
+  <si>
+    <t>ARYA</t>
+  </si>
+  <si>
+    <t>CUKUP</t>
+  </si>
+  <si>
+    <t>MOCHAMAD</t>
+  </si>
+  <si>
+    <t>KHOLIL</t>
+  </si>
+  <si>
+    <t>GALIH</t>
+  </si>
+  <si>
+    <t>NOVA</t>
+  </si>
+  <si>
+    <t>ANDRIANA</t>
+  </si>
+  <si>
+    <t>PAJAR</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>RONIE</t>
+  </si>
+  <si>
+    <t>AHMAD</t>
+  </si>
+  <si>
+    <t>ARIF</t>
+  </si>
+  <si>
+    <t>TIARA</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>UJANG</t>
+  </si>
+  <si>
+    <t>DIAH</t>
+  </si>
+  <si>
+    <t>RULIYANA</t>
+  </si>
+  <si>
+    <t>GATOT</t>
+  </si>
+  <si>
+    <t>RANGGA</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>AGNES</t>
+  </si>
+  <si>
+    <t>YULIYANTI</t>
+  </si>
+  <si>
+    <t>ANTON</t>
+  </si>
+  <si>
+    <t>NOVAN</t>
+  </si>
+  <si>
+    <t>GILANG</t>
+  </si>
+  <si>
+    <t>INTAN</t>
+  </si>
+  <si>
+    <t>NABILA</t>
+  </si>
+  <si>
+    <t>IRVANI</t>
+  </si>
+  <si>
+    <t>FITRI</t>
+  </si>
+  <si>
+    <t>DONI</t>
+  </si>
+  <si>
+    <t>SITI</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>NENG</t>
+  </si>
+  <si>
+    <t>LILIS</t>
+  </si>
+  <si>
+    <t>KEMIH</t>
+  </si>
+  <si>
+    <t>ALGI</t>
+  </si>
+  <si>
+    <t>TERLAMBAT</t>
+  </si>
+  <si>
+    <t>IRWAN</t>
+  </si>
+  <si>
+    <t>HARTONO</t>
+  </si>
+  <si>
+    <t>DIKKY</t>
+  </si>
+  <si>
+    <t>RIZWAN</t>
+  </si>
+  <si>
+    <t>KURANG</t>
+  </si>
+  <si>
+    <t>YUSUF</t>
+  </si>
+  <si>
+    <t>NARATAMA</t>
+  </si>
+  <si>
+    <t>ALDI</t>
+  </si>
+  <si>
+    <t>SHALIKA</t>
+  </si>
+  <si>
+    <t>HARDIKA</t>
+  </si>
+  <si>
+    <t>AKHMAD</t>
+  </si>
+  <si>
+    <t>WALID</t>
+  </si>
+  <si>
+    <t>TAUFIK</t>
+  </si>
+  <si>
+    <t>ANITA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD</t>
+  </si>
+  <si>
+    <t>INDRA</t>
+  </si>
+  <si>
+    <t>SYAWKANI</t>
+  </si>
+  <si>
+    <t>PUTRA</t>
+  </si>
+  <si>
+    <t>HASRANI</t>
+  </si>
+  <si>
+    <t>HUMARAYASARI</t>
+  </si>
+  <si>
+    <t>FIKRI</t>
+  </si>
+  <si>
+    <t>REZA</t>
+  </si>
+  <si>
+    <t>DEWI</t>
+  </si>
+  <si>
+    <t>DIKY</t>
+  </si>
+  <si>
+    <t>GUSTAF</t>
+  </si>
+  <si>
+    <t>ABDAN</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>ROBY</t>
+  </si>
+  <si>
+    <t>RIKARDO</t>
+  </si>
+  <si>
+    <t>BAGUS</t>
+  </si>
+  <si>
+    <t>ERNI</t>
+  </si>
+  <si>
+    <t>YUNIYAR</t>
+  </si>
+  <si>
+    <t>HERDIANSYAH</t>
+  </si>
+  <si>
+    <t>KURDI</t>
+  </si>
+  <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>SIGIH</t>
+  </si>
+  <si>
+    <t>NUR</t>
+  </si>
+  <si>
+    <t>FAKHRI</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>AFANDI</t>
+  </si>
+  <si>
+    <t>ALFAN</t>
+  </si>
+  <si>
+    <t>FAIZ</t>
+  </si>
+  <si>
+    <t>MATHORI</t>
+  </si>
+  <si>
+    <t>NOFI</t>
+  </si>
+  <si>
+    <t>ALDIANSYAH</t>
+  </si>
+  <si>
+    <t>DERA</t>
+  </si>
+  <si>
+    <t>POPY</t>
+  </si>
+  <si>
+    <t>JONI</t>
+  </si>
+  <si>
+    <t>PRIYO</t>
+  </si>
+  <si>
+    <t>LEGA</t>
+  </si>
+  <si>
+    <t>APRILIA</t>
+  </si>
+  <si>
+    <t>TRIO</t>
+  </si>
+  <si>
+    <t>RIKY</t>
+  </si>
+  <si>
+    <t>BAMBANG</t>
+  </si>
+  <si>
+    <t>RISNA</t>
+  </si>
+  <si>
+    <t>DENI</t>
+  </si>
+  <si>
+    <t>MENTARI</t>
+  </si>
+  <si>
+    <t>DIANAH</t>
+  </si>
+  <si>
+    <t>NURIYAH</t>
+  </si>
+  <si>
+    <t>IRVAN</t>
+  </si>
+  <si>
+    <t>ATIKA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -109,8 +416,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,7 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,17 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,18 +485,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -521,160 +853,3844 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="36.75" thickBot="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2020804170</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="36.75" thickBot="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2020804169</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2020804168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2020804167</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2020804166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2020804165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2020804164</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2020804163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2020804162</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2020804161</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2020804160</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2020804159</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2020804158</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2020804157</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2020804156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2020804155</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2020804154</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2020804153</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2020804152</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2020804151</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2020804150</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2020804149</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2020804148</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2020804147</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2020804146</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2020804145</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2020804144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2020804143</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2020804142</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2020804141</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2020804140</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
         <v>2020804139</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="2">
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2020804138</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2020804149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="E34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2020804137</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2020804136</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2020804135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
         <v>2020804134</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2020804142</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2020804133</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2020804137</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
+      <c r="E39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2020804132</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2020804131</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2020804130</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2020804129</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2020804128</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2020804127</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2020804126</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2020804125</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2020804124</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2020804123</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2020804122</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2020804121</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2020804120</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2020804119</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2020804118</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2020804117</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2020804116</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2020804115</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2020804114</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2020804113</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2020804112</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2020804111</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2020804110</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2020804109</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2020804108</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2020804107</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2020804106</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2020804105</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2020804104</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2020804103</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2020804102</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2020804101</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2020804100</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2020804099</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2020804098</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2020804097</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2020804096</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2020804095</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2020804094</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2020804093</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2020804092</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2020804091</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2020804090</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2020804089</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2020804088</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2020804087</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2020804086</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2020804085</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2020804084</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2020804083</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2020804082</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2020804081</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2020804080</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2020804079</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2020804078</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2020804077</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2020804076</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2020804075</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2020804074</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2020804073</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2020804072</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2020804071</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2020804070</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2020804069</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18.75" thickBot="1">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2020804068</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2020804067</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2020804066</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2020804065</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2020804064</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2020804063</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2020804062</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2020804061</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2020804060</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2020804059</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2020804058</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2020804057</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2020804056</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2020804055</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2020804054</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2020804053</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="36.75" thickBot="1">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2020804052</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
